--- a/public/doc/교통비청구서(영수증).xlsx
+++ b/public/doc/교통비청구서(영수증).xlsx
@@ -447,79 +447,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -543,25 +495,73 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,98 +871,98 @@
   <dimension ref="A1:AA181"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:P10"/>
+      <selection activeCell="A21" sqref="A21:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="15" width="5" customWidth="1"/>
-    <col min="16" max="16" width="5.125" customWidth="1"/>
+    <col min="16" max="16" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:27" ht="21.95" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="21" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="21" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="36"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="50"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -977,21 +977,21 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="37"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="S5" s="3"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -1006,21 +1006,21 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="18"/>
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1032,27 +1032,27 @@
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:27" ht="21.95" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="28">
         <f>SUM(I5:K6)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="37"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="21"/>
       <c r="S7" s="3"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -1064,22 +1064,22 @@
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" ht="21.95" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="33"/>
       <c r="S8" s="3"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1091,24 +1091,24 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" ht="21.95" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
       <c r="S9" s="3"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -1120,24 +1120,24 @@
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="43"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
       <c r="S10" s="3"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -1176,209 +1176,209 @@
       <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="36"/>
     </row>
     <row r="13" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="39"/>
     </row>
     <row r="14" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="42"/>
     </row>
     <row r="15" spans="1:27" ht="21.95" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="21" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="21" t="s">
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="36"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="50"/>
     </row>
     <row r="16" spans="1:27" ht="21.95" customHeight="1">
       <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="37"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" spans="1:16" ht="21.95" customHeight="1">
       <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="46"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="28">
         <f>SUM(I16:K17)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="37"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16" ht="21.95" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="33"/>
     </row>
     <row r="20" spans="1:16" ht="21.95" customHeight="1">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="40"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
     </row>
     <row r="21" spans="1:16" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
     </row>
     <row r="22" spans="1:16" s="11" customFormat="1" ht="21.95" customHeight="1" thickBot="1">
       <c r="A22" s="9"/>
@@ -1399,209 +1399,209 @@
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
     </row>
     <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="17"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="39"/>
     </row>
     <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="42"/>
     </row>
     <row r="26" spans="1:16" ht="21.95" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="21" t="s">
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="21" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="21" t="s">
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="36"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="50"/>
     </row>
     <row r="27" spans="1:16" ht="21.95" customHeight="1">
       <c r="A27" s="8">
         <v>1</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="37"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="21"/>
     </row>
     <row r="28" spans="1:16" ht="21.95" customHeight="1">
       <c r="A28" s="8">
         <v>2</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="46"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:16" ht="21.95" customHeight="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30">
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
         <f>SUM(I27:K28)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="37"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
     </row>
     <row r="30" spans="1:16" ht="21.95" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="35"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" spans="1:16" ht="21.95" customHeight="1">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="24"/>
     </row>
     <row r="32" spans="1:16" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="43"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="27"/>
     </row>
     <row r="33" ht="20.100000000000001" customHeight="1"/>
     <row r="34" ht="20.100000000000001" customHeight="1"/>
@@ -1753,51 +1753,13 @@
     <row r="180" ht="20.100000000000001" customHeight="1"/>
     <row r="181" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <sheetProtection password="D43F" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="B5:P6 A9:P9 B16:P17 A20:P20 B27:P28 A31:P31" name="범위2"/>
     <protectedRange sqref="A31:P31 B27:P28 B16:P17 A20:P20 A9:P9 B5:P6" name="범위1"/>
   </protectedRanges>
   <mergeCells count="57">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A32:P32"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A23:P25"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A12:P14"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="L15:P15"/>
     <mergeCell ref="A1:P3"/>
@@ -1814,15 +1776,52 @@
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="L7:P7"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A12:P14"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A23:P25"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.73" right="0.70866141732283472" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
+  <pageMargins left="0.74803149606299213" right="0.70866141732283472" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;G</oddFooter>
+    <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
